--- a/biology/Botanique/Liane_corail/Liane_corail.xlsx
+++ b/biology/Botanique/Liane_corail/Liane_corail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigonon leptopus
 La liane corail (Antigonon leptopus) est une espèce de plantes à fleurs de la famille des Polygonaceae. C'est une plante grimpante originaire du Mexique (dans les régions inférieures à 1000 m d'altitude).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La liane corail est une plante grimpante à croissance rapide qui peut atteindre, grâce à ses vrilles, une longueur de 10 à 12 m. La base du tronc peut devenir ligneuse avec l'âge.
 La plante forme des tubercules souterrains et de grandes racines.
@@ -549,7 +563,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Mexique, on consomme ces graines préparées comme du pop corn.
 La plante est aussi utilisée comme plante médicinale contre la toux, la fièvre ou les maux de gorge dans les États du nord du Mexique comme Baja California Sur et Sonora, et sur la côte ouest, dans l'état du Guerrero. Le thé est préparé avec des branches ou des racines. Pour la toux, on ajoute de la cannelle.
